--- a/raw-data/JRL_block1_30_11_7.xlsx
+++ b/raw-data/JRL_block1_30_11_7.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">-1994903312</definedName>
-    <definedName name="MethodPointer2">552</definedName>
+    <definedName name="MethodPointer1">865071600</definedName>
+    <definedName name="MethodPointer2">483</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_11_7.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_11_8.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -502,7 +502,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,13 +529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9E0F4"/>
+        <fgColor rgb="FFBAD7EF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBAD7EF"/>
+        <fgColor rgb="FFC9E0F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,7 +547,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD8E9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF428EC7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF247CBD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6FA9D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF8DBCE0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60A0D1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,49 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3385C2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF60A0D1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF7EB2DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF247CBD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF5197CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF428EC7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8E9F9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6FA9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,13 +690,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,31 +705,28 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,7 +1064,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45766</v>
+        <v>45767</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1072,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.556574074074074</v>
+        <v>0.54292824074074075</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1625,7 +1613,7 @@
         <v>144</v>
       </c>
       <c r="B45">
-        <v>22</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1633,7 +1621,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1676,41 +1664,41 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="27" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="9">
         <v>9</v>
       </c>
       <c r="F49" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G49" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H49" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I49" s="9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J49" s="9">
         <v>8</v>
       </c>
       <c r="K49" s="9">
+        <v>10</v>
+      </c>
+      <c r="L49" s="9">
+        <v>6</v>
+      </c>
+      <c r="M49" s="9">
         <v>9</v>
-      </c>
-      <c r="L49" s="9">
-        <v>11</v>
-      </c>
-      <c r="M49" s="9">
-        <v>12</v>
       </c>
       <c r="N49" s="9">
         <v>14</v>
@@ -1720,83 +1708,83 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
+      <c r="B50" s="28"/>
       <c r="C50" s="10">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="E50" s="11">
-        <v>1.0629999999999999</v>
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1.0509999999999999</v>
       </c>
       <c r="F50" s="12">
-        <v>1.1819999999999999</v>
-      </c>
-      <c r="G50" s="13">
-        <v>1.294</v>
-      </c>
-      <c r="H50" s="14">
-        <v>1.28</v>
+        <v>1.129</v>
+      </c>
+      <c r="G50" s="10">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="H50" s="13">
+        <v>0.91400000000000003</v>
       </c>
       <c r="I50" s="13">
-        <v>1.319</v>
-      </c>
-      <c r="J50" s="13">
-        <v>1.292</v>
-      </c>
-      <c r="K50" s="12">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="L50" s="10">
-        <v>1.002</v>
-      </c>
-      <c r="M50" s="15">
-        <v>0.872</v>
-      </c>
-      <c r="N50" s="15">
-        <v>0.871</v>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="M50" s="14">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="N50" s="13">
+        <v>0.88400000000000001</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="27" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>10</v>
-      </c>
-      <c r="D51" s="16">
-        <v>2335</v>
+        <v>11</v>
+      </c>
+      <c r="D51" s="15">
+        <v>3325</v>
       </c>
       <c r="E51" s="9">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F51" s="9">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G51" s="9">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="H51" s="9">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I51" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J51" s="9">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="K51" s="9">
-        <v>38</v>
-      </c>
-      <c r="L51" s="17">
-        <v>4237</v>
+        <v>27</v>
+      </c>
+      <c r="L51" s="16">
+        <v>3662</v>
       </c>
       <c r="M51" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N51" s="9">
         <v>12</v>
@@ -1806,558 +1794,558 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
-      <c r="C52" s="18">
-        <v>1.5189999999999999</v>
-      </c>
-      <c r="D52" s="11">
-        <v>1.105</v>
-      </c>
-      <c r="E52" s="14">
+      <c r="B52" s="28"/>
+      <c r="C52" s="17">
+        <v>1.486</v>
+      </c>
+      <c r="D52" s="12">
+        <v>1.159</v>
+      </c>
+      <c r="E52" s="12">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F52" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="H52" s="18">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="I52" s="12">
+        <v>1.113</v>
+      </c>
+      <c r="J52" s="19">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="L52" s="20">
+        <v>1.25</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0.998</v>
+      </c>
+      <c r="N52" s="20">
         <v>1.2230000000000001</v>
-      </c>
-      <c r="F52" s="14">
-        <v>1.212</v>
-      </c>
-      <c r="G52" s="19">
-        <v>1.409</v>
-      </c>
-      <c r="H52" s="19">
-        <v>1.3839999999999999</v>
-      </c>
-      <c r="I52" s="14">
-        <v>1.248</v>
-      </c>
-      <c r="J52" s="18">
-        <v>1.5680000000000001</v>
-      </c>
-      <c r="K52" s="12">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="L52" s="18">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="M52" s="11">
-        <v>1.06</v>
-      </c>
-      <c r="N52" s="14">
-        <v>1.2350000000000001</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
+        <v>12</v>
+      </c>
+      <c r="D53" s="9">
+        <v>7</v>
+      </c>
+      <c r="E53" s="9">
+        <v>10</v>
+      </c>
+      <c r="F53" s="9">
         <v>9</v>
       </c>
-      <c r="D53" s="9">
+      <c r="G53" s="9">
         <v>8</v>
       </c>
-      <c r="E53" s="9">
+      <c r="H53" s="9">
+        <v>144</v>
+      </c>
+      <c r="I53" s="16">
+        <v>3883</v>
+      </c>
+      <c r="J53" s="9">
+        <v>24</v>
+      </c>
+      <c r="K53" s="9">
+        <v>15</v>
+      </c>
+      <c r="L53" s="9">
+        <v>44</v>
+      </c>
+      <c r="M53" s="9">
+        <v>24</v>
+      </c>
+      <c r="N53" s="9">
         <v>11</v>
-      </c>
-      <c r="F53" s="9">
-        <v>8</v>
-      </c>
-      <c r="G53" s="9">
-        <v>9</v>
-      </c>
-      <c r="H53" s="9">
-        <v>310</v>
-      </c>
-      <c r="I53" s="20">
-        <v>4720</v>
-      </c>
-      <c r="J53" s="9">
-        <v>27</v>
-      </c>
-      <c r="K53" s="9">
-        <v>17</v>
-      </c>
-      <c r="L53" s="9">
-        <v>74</v>
-      </c>
-      <c r="M53" s="9">
-        <v>44</v>
-      </c>
-      <c r="N53" s="9">
-        <v>10</v>
       </c>
       <c r="O53" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="13">
-        <v>1.327</v>
-      </c>
-      <c r="D54" s="15">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="E54" s="19">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="F54" s="18">
-        <v>1.5169999999999999</v>
-      </c>
-      <c r="G54" s="13">
-        <v>1.3380000000000001</v>
-      </c>
-      <c r="H54" s="21">
-        <v>1.641</v>
-      </c>
-      <c r="I54" s="22">
-        <v>1.8839999999999999</v>
-      </c>
-      <c r="J54" s="21">
-        <v>1.601</v>
-      </c>
-      <c r="K54" s="13">
-        <v>1.321</v>
-      </c>
-      <c r="L54" s="19">
-        <v>1.3680000000000001</v>
-      </c>
-      <c r="M54" s="13">
-        <v>1.3180000000000001</v>
-      </c>
-      <c r="N54" s="23">
-        <v>1.6679999999999999</v>
+      <c r="B54" s="28"/>
+      <c r="C54" s="21">
+        <v>1.359</v>
+      </c>
+      <c r="D54" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1.264</v>
+      </c>
+      <c r="F54" s="17">
+        <v>1.462</v>
+      </c>
+      <c r="G54" s="20">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="H54" s="22">
+        <v>1.645</v>
+      </c>
+      <c r="I54" s="23">
+        <v>1.923</v>
+      </c>
+      <c r="J54" s="22">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="K54" s="18">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="L54" s="12">
+        <v>1.129</v>
+      </c>
+      <c r="M54" s="18">
+        <v>1.266</v>
+      </c>
+      <c r="N54" s="22">
+        <v>1.623</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D55" s="9">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E55" s="9">
         <v>10</v>
       </c>
       <c r="F55" s="9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G55" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H55" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I55" s="9">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J55" s="9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K55" s="9">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="L55" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M55" s="24">
-        <v>1542</v>
+        <v>1388</v>
       </c>
       <c r="N55" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="30"/>
-      <c r="C56" s="13">
-        <v>1.33</v>
-      </c>
-      <c r="D56" s="25">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="E56" s="10">
-        <v>1</v>
-      </c>
-      <c r="F56" s="26">
-        <v>1.4990000000000001</v>
-      </c>
-      <c r="G56" s="19">
-        <v>1.37</v>
-      </c>
-      <c r="H56" s="21">
-        <v>1.5920000000000001</v>
-      </c>
-      <c r="I56" s="14">
-        <v>1.276</v>
-      </c>
-      <c r="J56" s="18">
-        <v>1.53</v>
-      </c>
-      <c r="K56" s="26">
-        <v>1.494</v>
-      </c>
-      <c r="L56" s="14">
-        <v>1.2130000000000001</v>
-      </c>
-      <c r="M56" s="18">
-        <v>1.516</v>
-      </c>
-      <c r="N56" s="26">
-        <v>1.4390000000000001</v>
+      <c r="B56" s="28"/>
+      <c r="C56" s="21">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="D56" s="13">
+        <v>0.879</v>
+      </c>
+      <c r="E56" s="11">
+        <v>0.93</v>
+      </c>
+      <c r="F56" s="19">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1.331</v>
+      </c>
+      <c r="H56" s="19">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="I56" s="20">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="J56" s="19">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="K56" s="17">
+        <v>1.47</v>
+      </c>
+      <c r="L56" s="12">
+        <v>1.135</v>
+      </c>
+      <c r="M56" s="21">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="N56" s="21">
+        <v>1.417</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="27" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D57" s="9">
         <v>10</v>
       </c>
       <c r="E57" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F57" s="9">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G57" s="9">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H57" s="9">
-        <v>11</v>
-      </c>
-      <c r="I57" s="27">
-        <v>1914</v>
+        <v>9</v>
+      </c>
+      <c r="I57" s="25">
+        <v>762</v>
       </c>
       <c r="J57" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K57" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L57" s="9">
         <v>10</v>
       </c>
       <c r="M57" s="9">
+        <v>12</v>
+      </c>
+      <c r="N57" s="9">
         <v>10</v>
-      </c>
-      <c r="N57" s="9">
-        <v>11</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="30"/>
-      <c r="C58" s="26">
-        <v>1.458</v>
-      </c>
-      <c r="D58" s="14">
-        <v>1.228</v>
-      </c>
-      <c r="E58" s="14">
-        <v>1.2809999999999999</v>
-      </c>
-      <c r="F58" s="13">
-        <v>1.2889999999999999</v>
-      </c>
-      <c r="G58" s="19">
-        <v>1.39</v>
-      </c>
-      <c r="H58" s="26">
-        <v>1.4379999999999999</v>
-      </c>
-      <c r="I58" s="18">
-        <v>1.53</v>
-      </c>
-      <c r="J58" s="13">
-        <v>1.355</v>
-      </c>
-      <c r="K58" s="13">
-        <v>1.35</v>
-      </c>
-      <c r="L58" s="14">
-        <v>1.244</v>
-      </c>
-      <c r="M58" s="25">
-        <v>0.91700000000000004</v>
-      </c>
-      <c r="N58" s="26">
-        <v>1.494</v>
+      <c r="B58" s="28"/>
+      <c r="C58" s="17">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="D58" s="20">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="E58" s="20">
+        <v>1.254</v>
+      </c>
+      <c r="F58" s="20">
+        <v>1.208</v>
+      </c>
+      <c r="G58" s="20">
+        <v>1.256</v>
+      </c>
+      <c r="H58" s="21">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="I58" s="17">
+        <v>1.478</v>
+      </c>
+      <c r="J58" s="18">
+        <v>1.341</v>
+      </c>
+      <c r="K58" s="20">
+        <v>1.19</v>
+      </c>
+      <c r="L58" s="12">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M58" s="14">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="N58" s="17">
+        <v>1.4750000000000001</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D59" s="9">
+        <v>8</v>
+      </c>
+      <c r="E59" s="9">
+        <v>19</v>
+      </c>
+      <c r="F59" s="9">
         <v>12</v>
       </c>
-      <c r="E59" s="9">
+      <c r="G59" s="9">
         <v>18</v>
       </c>
-      <c r="F59" s="9">
-        <v>11</v>
-      </c>
-      <c r="G59" s="9">
-        <v>19</v>
-      </c>
       <c r="H59" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K59" s="9">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="L59" s="9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M59" s="9">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N59" s="9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="30"/>
-      <c r="C60" s="13">
-        <v>1.3220000000000001</v>
-      </c>
-      <c r="D60" s="14">
-        <v>1.248</v>
-      </c>
-      <c r="E60" s="14">
-        <v>1.2769999999999999</v>
-      </c>
-      <c r="F60" s="14">
-        <v>1.246</v>
+      <c r="B60" s="28"/>
+      <c r="C60" s="18">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1.175</v>
+      </c>
+      <c r="E60" s="20">
+        <v>1.234</v>
+      </c>
+      <c r="F60" s="20">
+        <v>1.1950000000000001</v>
       </c>
       <c r="G60" s="12">
-        <v>1.1930000000000001</v>
-      </c>
-      <c r="H60" s="11">
-        <v>1.079</v>
-      </c>
-      <c r="I60" s="10">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="J60" s="14">
-        <v>1.284</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H60" s="10">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="I60" s="11">
+        <v>0.99</v>
+      </c>
+      <c r="J60" s="12">
+        <v>1.121</v>
       </c>
       <c r="K60" s="12">
-        <v>1.2</v>
+        <v>1.123</v>
       </c>
       <c r="L60" s="12">
-        <v>1.171</v>
-      </c>
-      <c r="M60" s="14">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="N60" s="18">
-        <v>1.52</v>
+        <v>1.115</v>
+      </c>
+      <c r="M60" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N60" s="17">
+        <v>1.454</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="27" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
         <v>10</v>
       </c>
       <c r="D61" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E61" s="9">
         <v>11</v>
       </c>
       <c r="F61" s="9">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G61" s="9">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H61" s="9">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I61" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J61" s="9">
-        <v>110</v>
-      </c>
-      <c r="K61" s="28">
-        <v>3600</v>
+        <v>86</v>
+      </c>
+      <c r="K61" s="26">
+        <v>2444</v>
       </c>
       <c r="L61" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M61" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N61" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="30"/>
-      <c r="C62" s="21">
-        <v>1.5980000000000001</v>
+      <c r="B62" s="28"/>
+      <c r="C62" s="22">
+        <v>1.6040000000000001</v>
       </c>
       <c r="D62" s="12">
-        <v>1.175</v>
-      </c>
-      <c r="E62" s="10">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="F62" s="14">
-        <v>1.2310000000000001</v>
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="E62" s="11">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F62" s="20">
+        <v>1.194</v>
       </c>
       <c r="G62" s="10">
-        <v>1.0509999999999999</v>
-      </c>
-      <c r="H62" s="11">
-        <v>1.0840000000000001</v>
+        <v>1.044</v>
+      </c>
+      <c r="H62" s="10">
+        <v>1.0369999999999999</v>
       </c>
       <c r="I62" s="12">
-        <v>1.204</v>
-      </c>
-      <c r="J62" s="12">
-        <v>1.141</v>
-      </c>
-      <c r="K62" s="13">
-        <v>1.323</v>
-      </c>
-      <c r="L62" s="11">
-        <v>1.113</v>
-      </c>
-      <c r="M62" s="11">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="N62" s="13">
-        <v>1.292</v>
+        <v>1.151</v>
+      </c>
+      <c r="J62" s="10">
+        <v>1.073</v>
+      </c>
+      <c r="K62" s="18">
+        <v>1.272</v>
+      </c>
+      <c r="L62" s="10">
+        <v>1.087</v>
+      </c>
+      <c r="M62" s="10">
+        <v>1.08</v>
+      </c>
+      <c r="N62" s="18">
+        <v>1.262</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="27" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D63" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E63" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G63" s="9">
         <v>10</v>
       </c>
       <c r="H63" s="9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I63" s="9">
+        <v>10</v>
+      </c>
+      <c r="J63" s="9">
+        <v>10</v>
+      </c>
+      <c r="K63" s="9">
         <v>11</v>
       </c>
-      <c r="J63" s="9">
-        <v>12</v>
-      </c>
-      <c r="K63" s="9">
+      <c r="L63" s="9">
+        <v>11</v>
+      </c>
+      <c r="M63" s="9">
         <v>9</v>
       </c>
-      <c r="L63" s="9">
-        <v>8</v>
-      </c>
-      <c r="M63" s="9">
-        <v>10</v>
-      </c>
       <c r="N63" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O63" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="30"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="10">
-        <v>1.0489999999999999</v>
-      </c>
-      <c r="D64" s="15">
-        <v>0.88100000000000001</v>
+        <v>1.028</v>
+      </c>
+      <c r="D64" s="13">
+        <v>0.85399999999999998</v>
       </c>
       <c r="E64" s="10">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="F64" s="15">
-        <v>0.89400000000000002</v>
-      </c>
-      <c r="G64" s="25">
-        <v>0.96199999999999997</v>
-      </c>
-      <c r="H64" s="10">
-        <v>1.024</v>
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="F64" s="13">
+        <v>0.873</v>
+      </c>
+      <c r="G64" s="11">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H64" s="11">
+        <v>1.0009999999999999</v>
       </c>
       <c r="I64" s="10">
-        <v>1.034</v>
-      </c>
-      <c r="J64" s="25">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="K64" s="15">
-        <v>0.83399999999999996</v>
-      </c>
-      <c r="L64" s="11">
-        <v>1.069</v>
-      </c>
-      <c r="M64" s="10">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N64" s="25">
-        <v>0.91</v>
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="J64" s="11">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="K64" s="14">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="L64" s="10">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="N64" s="13">
+        <v>0.86199999999999999</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
@@ -2376,7 +2364,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>